--- a/results/yq_test/3_regular_cz/Rb2Re4/3_regular_cz_total.xlsx
+++ b/results/yq_test/3_regular_cz/Rb2Re4/3_regular_cz_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/3_regular_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_6E1927B8DD7AD6381962D3F0505ED87656CD5D95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{018F19D5-1850-CD4A-BDC0-C8BCD2FE390F}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_6E1927B8DD7AD6381962D3F0505ED87656CD5D95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7110383-3FC6-084E-BB2F-D9387FAEA74C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>file name</t>
   </si>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t>DAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enola</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,8 +342,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -355,6 +362,1244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+              <a:t>3-regular graph circuits</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DasAtom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$R$3:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.92755227272715435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91370076399401445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9000546652871525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88661095215421226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87336664435114808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86031880520083714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-132A-5748-A9E4-FBD515014F4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tetris</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$S$3:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.86035459520756041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78611587465239252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77438165469602305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78611755170138065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67633876583670882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59966606761887331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-132A-5748-A9E4-FBD515014F4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Enola</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$T$3:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.89112658251485799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87082020580284303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83956031439372403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80594357276670103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77998963792973197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75217022640497599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-132A-5748-A9E4-FBD515014F4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2095786512"/>
+        <c:axId val="998461392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2095786512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+                  <a:t>Qubits</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998461392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="998461392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+                  <a:t>Fidelity</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2095786512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E5D866-9E0D-54AE-2024-D0E7912C2FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -654,7 +1899,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,15 +1940,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="R2" t="s">
         <v>86</v>
       </c>
       <c r="S2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -743,19 +1991,26 @@
       <c r="N3">
         <v>18</v>
       </c>
+      <c r="O3" s="1">
+        <v>0.89112658251485799</v>
+      </c>
       <c r="Q3">
         <v>10</v>
       </c>
       <c r="R3">
-        <f>AVERAGE(E3:E12)</f>
-        <v>0.6705956877720971</v>
+        <f>E3</f>
+        <v>0.92755227272715435</v>
       </c>
       <c r="S3">
-        <f>AVERAGE(L3:L12)</f>
-        <v>0.48758577966481614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <f>L3</f>
+        <v>0.86035459520756041</v>
+      </c>
+      <c r="T3">
+        <f>O3</f>
+        <v>0.89112658251485799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -795,19 +2050,24 @@
       <c r="N4">
         <v>179</v>
       </c>
+      <c r="O4" s="1"/>
       <c r="Q4">
         <v>12</v>
       </c>
       <c r="R4">
-        <f>AVERAGE(E13:E22)</f>
-        <v>0.62036673115347296</v>
+        <f>E13</f>
+        <v>0.91370076399401445</v>
       </c>
       <c r="S4">
-        <f>AVERAGE(L13:L22)</f>
-        <v>0.41349757837732753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <f>L13</f>
+        <v>0.78611587465239252</v>
+      </c>
+      <c r="T4">
+        <f>O13</f>
+        <v>0.87082020580284303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -847,19 +2107,26 @@
       <c r="N5">
         <v>39</v>
       </c>
+      <c r="O5" s="1">
+        <v>0.79508545369614902</v>
+      </c>
       <c r="Q5">
         <v>14</v>
       </c>
       <c r="R5">
-        <f>AVERAGE(E23:E32)</f>
-        <v>0.57397349691980015</v>
+        <f>E23</f>
+        <v>0.9000546652871525</v>
       </c>
       <c r="S5">
-        <f>AVERAGE(L23:L32)</f>
-        <v>0.34482122262473408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <f>L23</f>
+        <v>0.77438165469602305</v>
+      </c>
+      <c r="T5">
+        <f>O23</f>
+        <v>0.83956031439372403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -899,19 +2166,26 @@
       <c r="N6">
         <v>59</v>
       </c>
+      <c r="O6" s="1">
+        <v>0.70584305136088499</v>
+      </c>
       <c r="Q6">
         <v>16</v>
       </c>
       <c r="R6">
-        <f>AVERAGE(E33:E42)</f>
-        <v>0.53088596298335644</v>
+        <f>E33</f>
+        <v>0.88661095215421226</v>
       </c>
       <c r="S6">
-        <f>AVERAGE(L33:L42)</f>
-        <v>0.31213340635886999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <f>L33</f>
+        <v>0.78611755170138065</v>
+      </c>
+      <c r="T6">
+        <f>O33</f>
+        <v>0.80594357276670103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -951,19 +2225,26 @@
       <c r="N7">
         <v>77</v>
       </c>
+      <c r="O7" s="1">
+        <v>0.63118830847893204</v>
+      </c>
       <c r="Q7">
         <v>18</v>
       </c>
       <c r="R7">
-        <f>AVERAGE(E43:E52)</f>
-        <v>0.49539158195157074</v>
+        <f>E43</f>
+        <v>0.87336664435114808</v>
       </c>
       <c r="S7">
-        <f>AVERAGE(L43:L52)</f>
-        <v>0.20717193995569172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <f>L43</f>
+        <v>0.67633876583670882</v>
+      </c>
+      <c r="T7">
+        <f>O43</f>
+        <v>0.77998963792973197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1003,19 +2284,26 @@
       <c r="N8">
         <v>94</v>
       </c>
+      <c r="O8" s="1">
+        <v>0.56152251462628699</v>
+      </c>
       <c r="Q8">
         <v>20</v>
       </c>
       <c r="R8">
-        <f>AVERAGE(E53:E62)</f>
-        <v>0.45938990102882282</v>
+        <f>E53</f>
+        <v>0.86031880520083714</v>
       </c>
       <c r="S8">
-        <f>AVERAGE(L53:L62)</f>
-        <v>0.17611988032328438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <f>L53</f>
+        <v>0.59966606761887331</v>
+      </c>
+      <c r="T8">
+        <f>O53</f>
+        <v>0.75217022640497599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1055,8 +2343,11 @@
       <c r="N9">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="O9" s="1">
+        <v>0.49664686376883099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1096,8 +2387,11 @@
       <c r="N10">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="O10" s="1">
+        <v>0.44140259473592702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1137,8 +2431,11 @@
       <c r="N11">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="O11" s="1">
+        <v>0.393952744690162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1178,8 +2475,11 @@
       <c r="N12">
         <v>167</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="O12" s="1">
+        <v>0.35193064718210698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1219,8 +2519,11 @@
       <c r="N13">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="O13" s="1">
+        <v>0.87082020580284303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1260,8 +2563,11 @@
       <c r="N14">
         <v>216</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="O14" s="1">
+        <v>0.22470084372353799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1301,8 +2607,11 @@
       <c r="N15">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="O15" s="1">
+        <v>0.74523811033204501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1342,8 +2651,11 @@
       <c r="N16">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="1">
+        <v>0.63899422728750599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1383,8 +2695,11 @@
       <c r="N17">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="1">
+        <v>0.55080768475164299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1424,8 +2739,11 @@
       <c r="N18">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="1">
+        <v>0.47500656506537497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1465,8 +2783,11 @@
       <c r="N19">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="1">
+        <v>0.404930274960982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1506,8 +2827,11 @@
       <c r="N20">
         <v>140</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="1">
+        <v>0.35251999987840799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1547,8 +2871,11 @@
       <c r="N21">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="1">
+        <v>0.301329091391005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1588,8 +2915,11 @@
       <c r="N22">
         <v>191</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="1">
+        <v>0.25961130549863498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1629,8 +2959,11 @@
       <c r="N23">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="1">
+        <v>0.83956031439372403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1670,8 +3003,11 @@
       <c r="N24">
         <v>247</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="1">
+        <v>0.15280079368247301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1711,8 +3047,11 @@
       <c r="N25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="1">
+        <v>0.69919130152722198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1752,8 +3091,11 @@
       <c r="N26">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="1">
+        <v>0.57858175290702796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1793,8 +3135,11 @@
       <c r="N27">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="1">
+        <v>0.48022071776119002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1834,8 +3179,11 @@
       <c r="N28">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="1">
+        <v>0.39885396819791202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1875,8 +3223,11 @@
       <c r="N29">
         <v>149</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="1">
+        <v>0.334405390264011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1916,8 +3267,11 @@
       <c r="N30">
         <v>187</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="1">
+        <v>0.27527391976753002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1957,8 +3311,11 @@
       <c r="N31">
         <v>208</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="1">
+        <v>0.224377255018439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1998,8 +3355,11 @@
       <c r="N32">
         <v>228</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="1">
+        <v>0.18838469876421099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2039,8 +3399,11 @@
       <c r="N33">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="1">
+        <v>0.80594357276670103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2080,8 +3443,9 @@
       <c r="N34">
         <v>298</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2121,8 +3485,11 @@
       <c r="N35">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="1">
+        <v>0.639227768250619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2162,8 +3529,11 @@
       <c r="N36">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="1">
+        <v>0.51184708647493904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2203,8 +3573,11 @@
       <c r="N37">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="1">
+        <v>0.40633378006184401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2244,8 +3617,11 @@
       <c r="N38">
         <v>143</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="1">
+        <v>0.33530434057902703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -2285,8 +3661,11 @@
       <c r="N39">
         <v>166</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="1">
+        <v>0.26062695791553497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2326,8 +3705,11 @@
       <c r="N40">
         <v>205</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" s="1">
+        <v>0.21113825154624299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2367,8 +3749,11 @@
       <c r="N41">
         <v>229</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" s="1">
+        <v>0.167693726919978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2408,8 +3793,11 @@
       <c r="N42">
         <v>241</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" s="1">
+        <v>0.131828595657311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -2449,8 +3837,11 @@
       <c r="N43">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" s="1">
+        <v>0.77998963792973197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2490,8 +3881,11 @@
       <c r="N44">
         <v>330</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" s="1">
+        <v>6.8317250973526103E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2531,8 +3925,11 @@
       <c r="N45">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" s="1">
+        <v>0.59422151985531502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -2572,8 +3969,11 @@
       <c r="N46">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" s="1">
+        <v>0.45291138469193298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2613,8 +4013,11 @@
       <c r="N47">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47" s="1">
+        <v>0.34075540537427701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2654,8 +4057,11 @@
       <c r="N48">
         <v>158</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" s="1">
+        <v>0.26285322485725798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2695,8 +4101,11 @@
       <c r="N49">
         <v>181</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="1">
+        <v>0.201648499641019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2736,8 +4145,11 @@
       <c r="N50">
         <v>233</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="1">
+        <v>0.15274095666340401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -2777,8 +4189,11 @@
       <c r="N51">
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" s="1">
+        <v>0.117604770720677</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2818,8 +4233,11 @@
       <c r="N52">
         <v>292</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" s="1">
+        <v>8.9598924808699701E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -2859,8 +4277,11 @@
       <c r="N53">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" s="1">
+        <v>0.75217022640497599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2900,8 +4321,9 @@
       <c r="N54">
         <v>349</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2941,8 +4363,11 @@
       <c r="N55">
         <v>73</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55" s="1">
+        <v>0.54315427049284604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2982,8 +4407,11 @@
       <c r="N56">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" s="1">
+        <v>0.39086890390064399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -3023,8 +4451,11 @@
       <c r="N57">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" s="1">
+        <v>0.28204399042467498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3064,8 +4495,11 @@
       <c r="N58">
         <v>189</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" s="1">
+        <v>0.20716018168282599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -3105,8 +4539,11 @@
       <c r="N59">
         <v>211</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" s="1">
+        <v>0.15344651146006599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -3146,8 +4583,11 @@
       <c r="N60">
         <v>246</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" s="1">
+        <v>0.108771152748166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -3187,8 +4627,11 @@
       <c r="N61">
         <v>291</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" s="1">
+        <v>8.12863878697727E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -3228,8 +4671,11 @@
       <c r="N62">
         <v>307</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" s="1">
+        <v>5.73215978653061E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -3279,5 +4725,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>